--- a/data/trans_orig/P74B2S3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P74B2S3-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56F1F89B-49AC-4DB0-BCFE-5787F0867D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF0F4C03-1D61-4512-B698-9573B76271DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{930B1982-FA55-414C-936A-FC27486DA6A2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{06EDC350-2946-4E0C-BD95-7B3E5FF8BCDE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8415B342-7231-4DDC-895C-17DFA4BF2EE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B00C4F-8942-4123-8D05-FD6779C25F9A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P74B2S3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P74B2S3-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF0F4C03-1D61-4512-B698-9573B76271DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6FC129C-9E8C-4471-A2CE-A6F1AB43690C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{06EDC350-2946-4E0C-BD95-7B3E5FF8BCDE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{30FC2A6F-164F-44AF-86EA-E0474663E765}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B00C4F-8942-4123-8D05-FD6779C25F9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBE5CFA-088E-4ED2-8BC3-37F6F6AC98D4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
